--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yadhu Projects\Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398C55C-CD6C-4152-8445-B8429A688E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B1FDAA-5378-4D74-978D-E93647090122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Tag</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Ensures durability, readability, and clean production.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who is the ceo of idynamics software india </t>
+  </si>
+  <si>
+    <t>NagaRajan is the C.E.O of idynamics software india</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
   <dimension ref="A2:C286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -928,8 +934,12 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
